--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,19 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Npy</t>
   </si>
   <si>
     <t>Npy1r</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>7.926322666666667</v>
+      </c>
+      <c r="H2">
+        <v>23.778968</v>
+      </c>
+      <c r="I2">
+        <v>0.7593601911550306</v>
+      </c>
+      <c r="J2">
+        <v>0.7593601911550305</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.7702303333333332</v>
+      </c>
+      <c r="N2">
+        <v>2.310691</v>
+      </c>
+      <c r="O2">
+        <v>0.3232365410491862</v>
+      </c>
+      <c r="P2">
+        <v>0.3232365410491862</v>
+      </c>
+      <c r="Q2">
+        <v>6.105094149654222</v>
+      </c>
+      <c r="R2">
+        <v>54.94584734688799</v>
+      </c>
+      <c r="S2">
+        <v>0.2454529615994009</v>
+      </c>
+      <c r="T2">
+        <v>0.2454529615994009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7.926322666666667</v>
+      </c>
+      <c r="H3">
+        <v>23.778968</v>
+      </c>
+      <c r="I3">
+        <v>0.7593601911550306</v>
+      </c>
+      <c r="J3">
+        <v>0.7593601911550305</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.06684566666666666</v>
+      </c>
+      <c r="N3">
+        <v>0.200537</v>
+      </c>
+      <c r="O3">
+        <v>0.02805259821948528</v>
+      </c>
+      <c r="P3">
+        <v>0.02805259821948528</v>
+      </c>
+      <c r="Q3">
+        <v>0.5298403228684444</v>
+      </c>
+      <c r="R3">
+        <v>4.768562905815999</v>
+      </c>
+      <c r="S3">
+        <v>0.02130202634634361</v>
+      </c>
+      <c r="T3">
+        <v>0.02130202634634361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7.926322666666667</v>
+      </c>
+      <c r="H4">
+        <v>23.778968</v>
+      </c>
+      <c r="I4">
+        <v>0.7593601911550306</v>
+      </c>
+      <c r="J4">
+        <v>0.7593601911550305</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.008552000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.025656</v>
+      </c>
+      <c r="O4">
+        <v>0.003588950966251188</v>
+      </c>
+      <c r="P4">
+        <v>0.003588950966251187</v>
+      </c>
+      <c r="Q4">
+        <v>0.06778591144533334</v>
+      </c>
+      <c r="R4">
+        <v>0.6100732030080001</v>
+      </c>
+      <c r="S4">
+        <v>0.002725306491778534</v>
+      </c>
+      <c r="T4">
+        <v>0.002725306491778533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>7.87015697236088</v>
-      </c>
-      <c r="H2">
-        <v>7.87015697236088</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1.0868897594415</v>
-      </c>
-      <c r="N2">
-        <v>1.0868897594415</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>8.553993018456161</v>
-      </c>
-      <c r="R2">
-        <v>8.553993018456161</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.926322666666667</v>
+      </c>
+      <c r="H5">
+        <v>23.778968</v>
+      </c>
+      <c r="I5">
+        <v>0.7593601911550306</v>
+      </c>
+      <c r="J5">
+        <v>0.7593601911550305</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.537241</v>
+      </c>
+      <c r="N5">
+        <v>4.611723</v>
+      </c>
+      <c r="O5">
+        <v>0.6451219097650773</v>
+      </c>
+      <c r="P5">
+        <v>0.6451219097650772</v>
+      </c>
+      <c r="Q5">
+        <v>12.18466818242933</v>
+      </c>
+      <c r="R5">
+        <v>109.662013641864</v>
+      </c>
+      <c r="S5">
+        <v>0.4898798967175075</v>
+      </c>
+      <c r="T5">
+        <v>0.4898798967175074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H6">
+        <v>7.53551</v>
+      </c>
+      <c r="I6">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J6">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.7702303333333332</v>
+      </c>
+      <c r="N6">
+        <v>2.310691</v>
+      </c>
+      <c r="O6">
+        <v>0.3232365410491862</v>
+      </c>
+      <c r="P6">
+        <v>0.3232365410491862</v>
+      </c>
+      <c r="Q6">
+        <v>1.934692793045556</v>
+      </c>
+      <c r="R6">
+        <v>17.41223513741</v>
+      </c>
+      <c r="S6">
+        <v>0.07778357944978528</v>
+      </c>
+      <c r="T6">
+        <v>0.07778357944978527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H7">
+        <v>7.53551</v>
+      </c>
+      <c r="I7">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J7">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.06684566666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.200537</v>
+      </c>
+      <c r="O7">
+        <v>0.02805259821948528</v>
+      </c>
+      <c r="P7">
+        <v>0.02805259821948528</v>
+      </c>
+      <c r="Q7">
+        <v>0.1679053965411111</v>
+      </c>
+      <c r="R7">
+        <v>1.51114856887</v>
+      </c>
+      <c r="S7">
+        <v>0.006750571873141668</v>
+      </c>
+      <c r="T7">
+        <v>0.006750571873141667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H8">
+        <v>7.53551</v>
+      </c>
+      <c r="I8">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J8">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.008552000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.025656</v>
+      </c>
+      <c r="O8">
+        <v>0.003588950966251188</v>
+      </c>
+      <c r="P8">
+        <v>0.003588950966251187</v>
+      </c>
+      <c r="Q8">
+        <v>0.02148122717333334</v>
+      </c>
+      <c r="R8">
+        <v>0.19333104456</v>
+      </c>
+      <c r="S8">
+        <v>0.0008636444744726542</v>
+      </c>
+      <c r="T8">
+        <v>0.000863644474472654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>2.511836666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.53551</v>
+      </c>
+      <c r="I9">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="J9">
+        <v>0.2406398088449694</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.537241</v>
+      </c>
+      <c r="N9">
+        <v>4.611723</v>
+      </c>
+      <c r="O9">
+        <v>0.6451219097650773</v>
+      </c>
+      <c r="P9">
+        <v>0.6451219097650772</v>
+      </c>
+      <c r="Q9">
+        <v>3.861298309303333</v>
+      </c>
+      <c r="R9">
+        <v>34.75168478373</v>
+      </c>
+      <c r="S9">
+        <v>0.1552420130475698</v>
+      </c>
+      <c r="T9">
+        <v>0.1552420130475698</v>
       </c>
     </row>
   </sheetData>
